--- a/data/universities_order.xlsx
+++ b/data/universities_order.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="1381">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -79,12 +79,18 @@
     <t xml:space="preserve">Ecole Polytechnique Federale de Lausanne (EPFL)</t>
   </si>
   <si>
+    <t xml:space="preserve">University of California at San Francisco</t>
+  </si>
+  <si>
     <t xml:space="preserve">University of California at Los Angeles</t>
   </si>
   <si>
     <t xml:space="preserve">University of Exeter</t>
   </si>
   <si>
+    <t xml:space="preserve">Duke University</t>
+  </si>
+  <si>
     <t xml:space="preserve">University of Kansas</t>
   </si>
   <si>
@@ -202,7 +208,7 @@
     <t xml:space="preserve">Hadassah University Medical Centre</t>
   </si>
   <si>
-    <t xml:space="preserve">Icahn School of Medicine at Mount Sinai (ISMMS</t>
+    <t xml:space="preserve">Icahn School of Medicine at Mount Sinai (ISMMS)</t>
   </si>
   <si>
     <t xml:space="preserve">Jiangsu University</t>
@@ -214,7 +220,7 @@
     <t xml:space="preserve">Kangwon National University</t>
   </si>
   <si>
-    <t xml:space="preserve">St. Petersburg National Research University of Information Technologies, Mechanics and Optics (ITMO</t>
+    <t xml:space="preserve">St. Petersburg National Research University of Information Technologies, Mechanics and Optics (ITMO)</t>
   </si>
   <si>
     <t xml:space="preserve">Universita Politecnica delle Marche</t>
@@ -4246,13 +4252,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4272,15 +4282,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B1380"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="2" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.5"/>
   </cols>
   <sheetData>
@@ -4429,7 +4440,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -4453,7 +4464,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="0" t="n">
@@ -15308,7 +15319,22 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1379" s="0" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B1379" s="0" t="n">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1380" s="0" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B1380" s="0" t="n">
+        <v>1379</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
